--- a/doc/8.Executor原理剖析.xlsx
+++ b/doc/8.Executor原理剖析.xlsx
@@ -142,16 +142,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>359882</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>96078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>283683</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>134178</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -160,8 +160,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1971675" y="552450"/>
-          <a:ext cx="2667001" cy="1752600"/>
+          <a:off x="3797165" y="2705100"/>
+          <a:ext cx="2673627" cy="1777448"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -206,75 +206,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>463827</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>480391</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2466975" y="1752600"/>
-          <a:ext cx="1685925" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Executor</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>执行句柄对象</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>33545</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -283,8 +224,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7848600" y="914400"/>
-          <a:ext cx="1695450" cy="695325"/>
+          <a:off x="8713305" y="397566"/>
+          <a:ext cx="3453847" cy="1723196"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -305,15 +246,26 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
             <a:t>Driver</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>DriverEndpoint</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>）</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -321,26 +273,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>173936</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>54251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>596348</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="文本框 7"/>
+        <xdr:cNvPr id="15" name="文本框 14"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4867275" y="523874"/>
-          <a:ext cx="2400300" cy="676275"/>
+          <a:off x="8423414" y="3011142"/>
+          <a:ext cx="1797325" cy="467553"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -375,36 +327,52 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>CoarseGrainedExecutorBackend</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>进程启动好后，会立即向</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>向</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Driver</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>发送一条</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>RegisterExecutor</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>消息，向</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Driver</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>注册</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>注册成功后，会返回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RegisteredExecutor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>消息</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -413,73 +381,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>354497</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>70401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4629150" y="1466850"/>
-          <a:ext cx="3209925" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>530087</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="文本框 14"/>
+        <xdr:cNvPr id="25" name="文本框 24"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4686300" y="1533525"/>
-          <a:ext cx="3143250" cy="952500"/>
+          <a:off x="7229062" y="4244836"/>
+          <a:ext cx="4987786" cy="476251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -514,92 +435,76 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发送了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RegisterdExecutor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>消息后调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>makeOffers()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t>中的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>launchTask()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>方法中通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>executorEndpointRef</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>向</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Driver</a:t>
+            <a:t>CoarseGrainedExecutorBackend</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>注册成功后，会返回</a:t>
+            <a:t>进程发送</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Register</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ed</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Executor</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>消息，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>CoarseGrainedExecutorBackend</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>进程接收到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>RegisteredExecutor</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>消息后会创建一个执行句柄，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Executor</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>对象</a:t>
+            <a:t>LaunchTask</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>消息</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -609,41 +514,192 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>48454</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>440635</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>49282</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="肘形连接符 21"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="矩形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="6115051" y="123825"/>
-          <a:ext cx="1095375" cy="4067175"/>
+        <a:xfrm>
+          <a:off x="4173193" y="4820478"/>
+          <a:ext cx="1767094" cy="446847"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>创建</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>TaskRunner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>线程</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>554934</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>137078</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>629478</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="矩形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3992217" y="5702991"/>
+          <a:ext cx="2136913" cy="931379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>将线程丢去线程池中运行</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ThreadPool</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Executor.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" b="1"/>
+            <a:t>execute()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" b="1"/>
+            <a:t>中去执行</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244544</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>49282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>248478</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>137078</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直接箭头连接符 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="2"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5056740" y="5267325"/>
+          <a:ext cx="3934" cy="435666"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -654,73 +710,494 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99392</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>538370</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>74542</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4381500" y="1638300"/>
-          <a:ext cx="266700" cy="1047751"/>
+        <a:xfrm>
+          <a:off x="2849218" y="91107"/>
+          <a:ext cx="4563717" cy="1722783"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent5"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>spark-submit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>提交执行脚本通过反射启动</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>application</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>main</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>方法</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(Driver)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>时</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>就开始执行我们的代码 ，开始初始化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sparkContext(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>主要包括</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>spark</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ui,DAGScheduler,TaskScheduler</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的初始化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>createTaskScheduler</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>时会初始化</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>backend(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>如</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>standaloneSchedulerBackend),</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>完成后最终会调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>backend</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>start()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法，在该方法中会用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>command</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>拼接参数，并用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ApplicationDescription</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>封装了一些重要的参数（如</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>executor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>启动的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>main class</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>类），在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>worker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>启动</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>executor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中最终会启动</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>org.apache.spark.executor.CoarseGrainedExecutorBackend</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>子进程</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>480392</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>41414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99392</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="文本框 24"/>
+        <xdr:cNvPr id="26" name="文本框 25"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4914900" y="2838450"/>
-          <a:ext cx="3695700" cy="476250"/>
+          <a:off x="6667501" y="2128631"/>
+          <a:ext cx="2368826" cy="679174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -756,35 +1233,39 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>CoarseGrainedExecutorBackend</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>进程启动好后，会立即向</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>Driver</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>内的</a:t>
+            <a:t>发送一条</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RegisterExecutor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>消息，向</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>TaskScheduler</a:t>
+            <a:t>Driver</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>向</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>CoarseGrainedExecutorBackend</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>进程发送</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>LaunchTask</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>消息</a:t>
+            <a:t>注册</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -793,242 +1274,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>318881</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>74542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="矩形 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2428875" y="2781300"/>
-          <a:ext cx="1762125" cy="600075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>TaskRunner</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>线程</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="矩形 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438400" y="3933826"/>
-          <a:ext cx="1743075" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>将线程丢去线程池中运行</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="文本框 29"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2019300" y="981075"/>
-          <a:ext cx="2543175" cy="647700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
-            <a:t>CoarseGrainedExecutorBackend</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
-            <a:t>进程接收到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
-            <a:t>LaunchTask</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
-            <a:t>消息后，会让</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
-            <a:t>Executor</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
-            <a:t>执行句柄对象去调用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
-            <a:t>executor</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
-            <a:t>launchTask()</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
-            <a:t>方法</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>321783</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>96078</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直接箭头连接符 32"/>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="4" idx="1"/>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="2" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4638675" y="1247775"/>
-          <a:ext cx="3209925" cy="14288"/>
+          <a:off x="5131077" y="1813890"/>
+          <a:ext cx="2902" cy="891210"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1054,33 +1322,220 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>596348</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2588529" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="文本框 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4033631" y="2112065"/>
+          <a:ext cx="2588529" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>启动</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CoarseGrainedExecutorBackend</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>进程</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>566738</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>670892</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>566738</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>405848</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="圆角矩形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8920370" y="687458"/>
+          <a:ext cx="1797326" cy="935934"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>case </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RegisterExecutor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : =&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>makeOffers()---&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>launchTask()</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>283683</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>111816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>670892</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>115128</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直接箭头连接符 35"/>
+        <xdr:cNvPr id="60" name="肘形连接符 59"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="28" idx="0"/>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="54" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3309938" y="2200275"/>
-          <a:ext cx="0" cy="581025"/>
+        <a:xfrm flipV="1">
+          <a:off x="6470792" y="1155425"/>
+          <a:ext cx="2449578" cy="2438399"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="bentConnector3">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -1106,31 +1561,744 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>566738</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447260</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>566738</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>115955</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="圆角矩形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3884543" y="2973457"/>
+          <a:ext cx="2418521" cy="1466021"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>case </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RegisteredExecutor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> : =&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>case </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LaunchTask : =&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>646044</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>149088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447262</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="矩形 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4083327" y="3279914"/>
+          <a:ext cx="1863587" cy="472108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>接收到该消息后创建</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Executor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>执行句柄对象</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447262</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>132523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66262</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>37272</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直接箭头连接符 37"/>
+        <xdr:cNvPr id="64" name="肘形连接符 63"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="28" idx="2"/>
-          <a:endCxn id="29" idx="0"/>
+          <a:stCxn id="65" idx="2"/>
+          <a:endCxn id="62" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7771159" y="221561"/>
+          <a:ext cx="1470162" cy="5118652"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>397566</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>24850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>422413</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>132523</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="矩形 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10021957" y="1764198"/>
+          <a:ext cx="2087217" cy="281608"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>executorEndpointRef</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>546651</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>16567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>612912</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165654</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="矩形 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3983934" y="4017067"/>
+          <a:ext cx="2128630" cy="323022"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Executor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>对象</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>launchTask()</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>612912</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>422413</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4143</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="肘形连接符 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="3"/>
+          <a:endCxn id="69" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6112564" y="1905002"/>
+          <a:ext cx="5996610" cy="2273576"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3812"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>236053</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>165654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>244544</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直接箭头连接符 78"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="2"/>
+          <a:endCxn id="28" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3309938" y="3381375"/>
-          <a:ext cx="0" cy="552451"/>
+          <a:off x="5048249" y="4340089"/>
+          <a:ext cx="8491" cy="480389"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>132522</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2370457" cy="919370"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="文本框 82"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12506739" y="1673087"/>
+          <a:ext cx="2370457" cy="919370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TaskScheduler</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>底层由</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>CoarseGrainedSchedulerBackend</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>驱动</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CoarseGrainedSchedulerBackend</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>类中</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>组合了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DriverEndpoint</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>405848</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>111816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66262</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>24850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="肘形连接符 84"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="3"/>
+          <a:endCxn id="65" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10717696" y="1155425"/>
+          <a:ext cx="347870" cy="608773"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -1165,7 +2333,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1446,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/8.Executor原理剖析.xlsx
+++ b/doc/8.Executor原理剖析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="12720" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,74 +59,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -329,8 +261,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -339,8 +271,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4867275" y="523874"/>
-          <a:ext cx="2400300" cy="676275"/>
+          <a:off x="4333875" y="558164"/>
+          <a:ext cx="2171700" cy="859156"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -709,8 +641,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -719,8 +651,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4914900" y="2838450"/>
-          <a:ext cx="3695700" cy="476250"/>
+          <a:off x="4381500" y="3021330"/>
+          <a:ext cx="3314700" cy="758190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -760,11 +692,11 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>内的</a:t>
+            <a:t>内</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>TaskScheduler</a:t>
+            <a:t>CoarseGrainedSchedulerBackend</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -1165,7 +1097,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1447,10 +1379,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
